--- a/data/minfin/25_questions.xlsx
+++ b/data/minfin/25_questions.xlsx
@@ -18,6 +18,42 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Автор</author>
+  </authors>
+  <commentList>
+    <comment ref="A2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+Группа вопросов согласована Минфином 26.07.2017 - БАКАНОВА АННА АЛЕКСАНДРОВНА [Anna.Bakanova@minfin.ru]</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="71">
   <si>
@@ -129,15 +165,9 @@
     <t>25.12</t>
   </si>
   <si>
-    <t>В чем, заключается, ОСАГО, Цель, Обязательное страхование, гражданской ответственности, транспортное средство, страхование,  транспортное средство</t>
-  </si>
-  <si>
     <t>Обязательное страхование гражданской ответственности владельцев транспортных средств осуществляется в целях защиты прав потерпевших на возмещение вреда, причиненного их жизни, здоровью или имуществу при использовании транспортных средств иными лицами</t>
   </si>
   <si>
-    <t>Сколько, Количество застрахованных, владельцев, транспортных средств, заключают, договор, ОСАГО, Обязательное страхование, гражданской ответственности</t>
-  </si>
-  <si>
     <t>В 2016 году гражданская ответственность по договорам ОСАГО в Российской Федерации была застрахована тридцатью девятью миллионами владельцев транспортных средств</t>
   </si>
   <si>
@@ -151,12 +181,6 @@
   </si>
   <si>
     <t>Страхование гражданской ответственности владельцев транспортных средств в обязательной форме осуществляется с 2003 г. в результате принятия Федерального закона от 25.04.2002 № 40-ФЗ «Об обязательном страховании гражданской ответственности владельцев транспортных средств»</t>
-  </si>
-  <si>
-    <t>Куда, обратиться, получение, страховое возмещение, страховщик, застраховавшему, гражданскую ответственность, потерпевший</t>
-  </si>
-  <si>
-    <t>Потерпевший вправе обратиться к страховщику, если в результате ДТП вред причинен только транспортным средствам; и если ДТП произошло в результате взаимодействия двух транспортных средств, гражданская ответственность владельцев которых застрахована</t>
   </si>
   <si>
     <t>Потерпевший вправе обратиться к страховщику, застраховавшему гражданскую ответственность потерпевшего, с требованием о возмещении вреда, причиненного его имуществу, при наличии следующих обстоятельств:
@@ -164,15 +188,6 @@
 • ДТП произошло в результате взаимодействия двух транспортных средств, гражданская ответственность владельцев которых застрахована. При этом с 25 сентября 2017 г. прямое возмещение убытков будет осуществляться независимо от количества участвующих в ДТП транспортных средств</t>
   </si>
   <si>
-    <t>Получить, Страховая выплата, ОСАГО, Обязательное страхование, гражданской ответственности, Не застрахован, гражданская ответственность, лицо, причинившего вред</t>
-  </si>
-  <si>
-    <t>Владельцы транспортных средств причинившие вред, риск ответственности которых не был застрахован, возмещают вред, причиненный жизни, здоровью или имуществу потерпевших, в соответствии с гражданским законодательством в размерах не менее чем размеры, определяемые в соответствии Законом об ОСАГО</t>
-  </si>
-  <si>
-    <t>В указанных случаях владельцы транспортных средств, риск ответственности которых не был застрахован, возмещают вред, причиненный жизни, здоровью или имуществу потерпевших, в соответствии с гражданским законодательством. При этом вред, причиненный жизни или здоровью потерпевших, подлежит возмещению в размерах не менее чем размеры, определяемые в соответствии Законом об ОСАГО</t>
-  </si>
-  <si>
     <t>страховое возмещение, ОСАГО, Обязательное страхование, гражданской ответственности, по договорам, в случае, причинения вреда, транспортному средству, потерпевшего, в результате, ДТП, дорожно-транспортное происшествие</t>
   </si>
   <si>
@@ -185,34 +200,16 @@
     <t>Предельные, сроки, восстановительного, ремонта, поврежденных, транспортных средств, по договорам, ОСАГО, Обязательное страхование, гражданской ответственности, осуществляемого, страховщиком</t>
   </si>
   <si>
-    <t>Срок проведения восстановительного ремонта поврежденного транспортного средства составляет тридцать рабочих дней</t>
-  </si>
-  <si>
-    <t>Срок проведения восстановительного ремонта поврежденного транспортного средства составляет 30 рабочих дней</t>
-  </si>
-  <si>
     <t>Гарантийный срок, на работы, восстановительный, ремонт, поврежденного, транспортного средства, по договорам, ОСАГО, Обязательное страхование, гражданской ответственности</t>
   </si>
   <si>
-    <t>Минимальный гарантийный срок на работы по восстановительному ремонту поврежденного транспортного средства шесть месяцев для поврежденного транспорта и двенадцать месяцев для кузовных работ и работ, связанных с использованием лакокрасочных материалов</t>
-  </si>
-  <si>
     <t>Минимальный гарантийный срок на работы по восстановительному ремонту поврежденного транспортного средства составляет 6 месяцев, а на кузовные работы и работы, связанные с использованием лакокрасочных материалов, 12 месяцев</t>
   </si>
   <si>
-    <t>Восстановительный ремонт, станции технического обслуживания, выбранной потерпевшим, не включенной, в перечень, без договора, у страховой организации, заключен, договор</t>
-  </si>
-  <si>
     <t>При наличии согласия страховщика в письменной форме потерпевший вправе самостоятельно организовать проведение восстановительного ремонта своего поврежденного транспортного средства на станции технического обслуживания, с которой у страховщика отсутствует договор на организацию восстановительного ремонта</t>
   </si>
   <si>
     <t>При наличии согласия страховщика в письменной форме потерпевший вправе самостоятельно организовать проведение восстановительного ремонта своего поврежденного транспортного средства на станции технического обслуживания, с которой у страховщика на момент подачи потерпевшим заявления о страховом возмещении или прямом возмещении убытков отсутствует договор на организацию восстановительного ремонта. В этом случае потерпевший в заявлении о страховом возмещении или прямом возмещении убытков указывает полное наименование выбранной станции технического обслуживания, ее адрес, место нахождения и платежные реквизиты, а страховщик выдает потерпевшему направление на ремонт и оплачивает проведенный восстановительный ремонт</t>
-  </si>
-  <si>
-    <t>На каких, станция технического обслуживания, восстановительный ремонт, транспортных средств, по договорам, ОСАГО, Обязательное страхование, гражданской ответственности</t>
-  </si>
-  <si>
-    <t>Восстановительный ремонт поврежденных транспортных средств может осуществляться на станциях технического обслуживания, с которыми страховщиком заключен договор на организацию восстановительного ремонта и которые соответствует требованиям к организации восстановительного ремонта в отношении потерпевшего. На других станциях технического обслуживания допускается проводить восстановительный ремонт с письменного согласия потерпевшего и страховщика</t>
   </si>
   <si>
     <t>Восстановительный ремонт поврежденных транспортных средств может осуществляться:
@@ -224,26 +221,230 @@
     <t>Страховое возмещение, по договору, ОСАГО, Обязательное страхование, гражданской ответственности, причинение вреда, транспортному средству, потерпевшего, в денежной форме, кроме случаев, смерти потерпевшего, полной гибели транспортного средства</t>
   </si>
   <si>
-    <t>Страховое возмещение может осуществляться в денежной форме в случае превышения стоимости восстановительного ремонта поврежденного транспортного средства над размером страховой суммы при наличии соглашения между страховщиком и потерпевшим</t>
-  </si>
-  <si>
     <t>Страховое возмещение по договору ОСАГО может осуществляться в денежной форме в случае превышения стоимости восстановительного ремонта поврежденного транспортного средства над размером страховой суммы, а так же в иных случаях, в том числе при наличии соглашения между страховщиком и потерпевшим</t>
   </si>
   <si>
-    <t>Обязательства, Обязаны, страховые, организации, компании, заключать, договор, ОСАГО, Обязательное страхование, гражданской ответственности, в форме, электронного документа</t>
-  </si>
-  <si>
     <t>С первого января две тысячи семнадцатого года страховые организации обязаны обеспечить возможность заключения договора ОСАГО в виде электронного документа</t>
   </si>
   <si>
     <t>С 1 января 2017 г. страховые организации обязаны обеспечить возможность заключения договора ОСАГО в виде электронного документа с каждым обратившимся к нему с соответствующим заявлением лицом</t>
+  </si>
+  <si>
+    <t>В чем, заключается, ОСАГО, Цель, Обязательное страхование, гражданской ответственности, транспортное средство, страхование</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Сколько, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Количество,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">  владельцев, транспортных средств, заключают, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>страхователей,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> договор, ОСАГО, Обязательное страхование, гражданской ответственности</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Куда, обратиться, получение, страховое возмещение, ст</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>раховая выплата,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> страховщик, застраховавшему, гражданскую ответственность, потерпевший</t>
+    </r>
+  </si>
+  <si>
+    <t>Потерпевший вправе обратиться к страховщику, если вред причинен только транспортным средствам; и если ДТП произошло в результате взаимодействия двух транспортных средств, гражданская ответственность владельцев которых застрахована</t>
+  </si>
+  <si>
+    <r>
+      <t>Получить, Страховая выплата, ОСАГО, Обязательное страхование, гражданской ответственности, Не застрахован, гражданская ответственность, лицо, причинившего вред, в</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>иновника ДТП</t>
+    </r>
+  </si>
+  <si>
+    <t>При отсутствии договора ОСАГО у причинившего вред лица, профессиональным объединением страховщиков осуществляется компенсационная выплата  в счет возмещения вреда, причиненного жизни или здоровью потерпевшего.
+Владельцы транспортных средств - виновники ДТП, риск ответственности которых не был застрахован, возмещают вред, причиненный жизни, здоровью или имуществу потерпевших, в соответствии с гражданским законодательством, с учетом того, что вред жизни и здоровью возмещается в размерах не менее чем определено в Законе об ОСАГО</t>
+  </si>
+  <si>
+    <t>В случаях, когда страховое возмещение по ОСАГО при причинении вреда жизни или здоровью потерпевшего не может быть осуществлено вследствие отсутствия договора ОСАГО, по которому застрахована гражданская ответственность причинившего вред лица, профессиональным объединением страховщиков (Российским союзом автостраховщиков) осуществляется компенсационная выплата. 
+В указанных случаях владельцы транспортных средств, риск ответственности которых не был застрахован, возмещают вред, причиненный жизни, здоровью или имуществу потерпевших, в соответствии с гражданским законодательством. При этом вред, причиненный жизни или здоровью потерпевших, подлежит возмещению в размерах не менее чем размеры, определяемые в соответствии Законом об ОСАГО</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Максимальный</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> срок проведения восстановительного ремонта поврежденного транспортного средства составляет тридцать рабочих дней</t>
+    </r>
+  </si>
+  <si>
+    <t>Максимальный срок проведения восстановительного ремонта поврежденного транспортного средства составляет 30 рабочих дней</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Минимальный гарантийный срок на работы по восстановительному ремонту поврежденного транспортного средства </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>составляет</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">  шесть месяцев и двенадцать месяцев для кузовных работ и работ, связанных с использованием лакокрасочных материалов</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Восстановительный ремонт, станции технического обслуживания, выбранной потерпевшим, не включенной, в перечень, без договора, у страховой организации, заключен, договор,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> СТО</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">На каких, станция технического обслуживания, восстановительный ремонт, транспортных средств, по договорам, ОСАГО, Обязательное страхование, гражданской ответственности, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>СТО</t>
+    </r>
+  </si>
+  <si>
+    <t>Восстановительный ремонт поврежденных транспортных средств может осуществляться на станциях технического обслуживания, с которыми страховщиком заключен договор на организацию восстановительного ремонта и которые соответствует требованиям к организации восстановительного ремонта. На других станциях технического обслуживания допускается проводить восстановительный ремонт с письменного согласия потерпевшего и страховщика</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Страховое возмещение может осуществляться в денежной форме в случае превышения стоимости восстановительного ремонта поврежденного транспортного средства над размером страховой суммы </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>и в иных случаях</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> при наличии соглашения между страховщиком и потерпевшим</t>
+    </r>
+  </si>
+  <si>
+    <t>Обязательства, Обязаны, страховые, организации, компании, заключать, договор, ОСАГО, Обязательное страхование, гражданской ответственности, в форме, электронного документа, в электронном виде, онлайн, в Интернет</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -273,13 +474,47 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -294,7 +529,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -302,12 +537,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -317,9 +546,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="justify"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -334,6 +560,24 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -646,7 +890,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -657,19 +901,19 @@
   <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D13" sqref="D13"/>
+      <selection pane="bottomRight" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="7.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.42578125" style="16" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="34" style="2" customWidth="1"/>
-    <col min="3" max="3" width="44.140625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="56.42578125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="36.28515625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="68.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="100.5703125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="69.85546875" style="2" customWidth="1"/>
     <col min="6" max="6" width="54.28515625" style="2" customWidth="1"/>
     <col min="7" max="7" width="42" style="2" customWidth="1"/>
     <col min="8" max="8" width="44.5703125" style="2" customWidth="1"/>
@@ -682,7 +926,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="1" customFormat="1">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="15" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -719,277 +963,278 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="5" customFormat="1" ht="126">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:12" s="3" customFormat="1" ht="78.75">
+      <c r="A2" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" spans="1:12" s="3" customFormat="1" ht="47.25">
+      <c r="A3" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="F2" s="6"/>
-    </row>
-    <row r="3" spans="1:12" s="5" customFormat="1" ht="110.25">
-      <c r="A3" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="6" t="s">
+      <c r="D3" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" spans="1:12" s="3" customFormat="1" ht="78.75">
+      <c r="A4" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-    </row>
-    <row r="4" spans="1:12" s="5" customFormat="1" ht="110.25">
-      <c r="A4" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="6" t="s">
+    </row>
+    <row r="5" spans="1:12" s="3" customFormat="1" ht="141.75">
+      <c r="A5" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="E5" s="11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" s="3" customFormat="1" ht="204.75">
+      <c r="A6" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" s="3" customFormat="1" ht="78.75">
+      <c r="A7" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" s="5" customFormat="1" ht="252">
-      <c r="A5" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D5" s="11" t="s">
+    </row>
+    <row r="8" spans="1:12" s="3" customFormat="1" ht="110.25">
+      <c r="A8" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E5" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" s="5" customFormat="1" ht="173.25">
-      <c r="A6" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="6" t="s">
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+    </row>
+    <row r="9" spans="1:12" s="3" customFormat="1" ht="78.75">
+      <c r="A9" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="E9" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" spans="1:12" s="3" customFormat="1" ht="173.25">
+      <c r="A10" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E6" s="6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" s="5" customFormat="1" ht="157.5">
-      <c r="A7" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="5" t="s">
+      <c r="D10" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" s="3" customFormat="1" ht="267.75">
+      <c r="A11" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="E11" s="14" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" s="3" customFormat="1" ht="126">
+      <c r="A12" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E7" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" s="5" customFormat="1" ht="157.5">
-      <c r="A8" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="5" t="s">
+    </row>
+    <row r="13" spans="1:12" s="3" customFormat="1" ht="63">
+      <c r="A13" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D13" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E8" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-    </row>
-    <row r="9" spans="1:12" s="5" customFormat="1" ht="126">
-      <c r="A9" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-    </row>
-    <row r="10" spans="1:12" s="5" customFormat="1" ht="315">
-      <c r="A10" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" s="5" customFormat="1" ht="393.75">
-      <c r="A11" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" s="5" customFormat="1" ht="141.75">
-      <c r="A12" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" s="5" customFormat="1" ht="110.25">
-      <c r="A13" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="D13" s="5" t="s">
+      <c r="E13" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="E13" s="5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" s="5" customFormat="1">
-      <c r="A14" s="8"/>
-      <c r="D14" s="13"/>
-    </row>
-    <row r="15" spans="1:12" s="5" customFormat="1">
-      <c r="A15" s="8"/>
-    </row>
-    <row r="16" spans="1:12" s="5" customFormat="1">
-      <c r="A16" s="8"/>
-      <c r="D16" s="7"/>
-    </row>
-    <row r="17" spans="1:4" s="5" customFormat="1">
-      <c r="A17" s="8"/>
-    </row>
-    <row r="18" spans="1:4" s="5" customFormat="1">
-      <c r="A18" s="8"/>
-    </row>
-    <row r="19" spans="1:4" s="5" customFormat="1">
-      <c r="A19" s="8"/>
-    </row>
-    <row r="20" spans="1:4" s="5" customFormat="1">
-      <c r="A20" s="8"/>
-    </row>
-    <row r="21" spans="1:4" s="5" customFormat="1">
-      <c r="A21" s="8"/>
-    </row>
-    <row r="22" spans="1:4" s="5" customFormat="1">
-      <c r="A22" s="8"/>
-      <c r="D22" s="10"/>
-    </row>
-    <row r="23" spans="1:4" s="5" customFormat="1">
-      <c r="A23" s="8"/>
-      <c r="D23" s="7"/>
-    </row>
-    <row r="24" spans="1:4" s="5" customFormat="1">
-      <c r="A24" s="8"/>
-    </row>
-    <row r="25" spans="1:4" s="5" customFormat="1">
-      <c r="A25" s="8"/>
-    </row>
-    <row r="26" spans="1:4" s="5" customFormat="1">
-      <c r="A26" s="8"/>
-    </row>
-    <row r="27" spans="1:4" s="5" customFormat="1">
-      <c r="A27" s="8"/>
-    </row>
-    <row r="28" spans="1:4" s="5" customFormat="1">
-      <c r="A28" s="8"/>
-    </row>
-    <row r="29" spans="1:4" s="5" customFormat="1">
-      <c r="A29" s="8"/>
-    </row>
-    <row r="30" spans="1:4" s="5" customFormat="1">
-      <c r="A30" s="8"/>
-    </row>
-    <row r="31" spans="1:4" s="5" customFormat="1">
-      <c r="A31" s="8"/>
+    </row>
+    <row r="14" spans="1:12" s="3" customFormat="1">
+      <c r="A14" s="16"/>
+      <c r="D14" s="10"/>
+    </row>
+    <row r="15" spans="1:12" s="3" customFormat="1">
+      <c r="A15" s="16"/>
+    </row>
+    <row r="16" spans="1:12" s="3" customFormat="1">
+      <c r="A16" s="16"/>
+      <c r="D16" s="5"/>
+    </row>
+    <row r="17" spans="1:4" s="3" customFormat="1">
+      <c r="A17" s="16"/>
+    </row>
+    <row r="18" spans="1:4" s="3" customFormat="1">
+      <c r="A18" s="16"/>
+    </row>
+    <row r="19" spans="1:4" s="3" customFormat="1">
+      <c r="A19" s="16"/>
+    </row>
+    <row r="20" spans="1:4" s="3" customFormat="1">
+      <c r="A20" s="16"/>
+    </row>
+    <row r="21" spans="1:4" s="3" customFormat="1">
+      <c r="A21" s="16"/>
+    </row>
+    <row r="22" spans="1:4" s="3" customFormat="1">
+      <c r="A22" s="16"/>
+      <c r="D22" s="7"/>
+    </row>
+    <row r="23" spans="1:4" s="3" customFormat="1">
+      <c r="A23" s="16"/>
+      <c r="D23" s="5"/>
+    </row>
+    <row r="24" spans="1:4" s="3" customFormat="1">
+      <c r="A24" s="16"/>
+    </row>
+    <row r="25" spans="1:4" s="3" customFormat="1">
+      <c r="A25" s="16"/>
+    </row>
+    <row r="26" spans="1:4" s="3" customFormat="1">
+      <c r="A26" s="16"/>
+    </row>
+    <row r="27" spans="1:4" s="3" customFormat="1">
+      <c r="A27" s="16"/>
+    </row>
+    <row r="28" spans="1:4" s="3" customFormat="1">
+      <c r="A28" s="16"/>
+    </row>
+    <row r="29" spans="1:4" s="3" customFormat="1">
+      <c r="A29" s="16"/>
+    </row>
+    <row r="30" spans="1:4" s="3" customFormat="1">
+      <c r="A30" s="16"/>
+    </row>
+    <row r="31" spans="1:4" s="3" customFormat="1">
+      <c r="A31" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/data/minfin/25_questions.xlsx
+++ b/data/minfin/25_questions.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17726"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455"/>
   </bookViews>
   <sheets>
     <sheet name="questions" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +24,7 @@
     <author>Автор</author>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0">
+    <comment ref="A2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -321,10 +321,6 @@
     </r>
   </si>
   <si>
-    <t>При отсутствии договора ОСАГО у причинившего вред лица, профессиональным объединением страховщиков осуществляется компенсационная выплата  в счет возмещения вреда, причиненного жизни или здоровью потерпевшего.
-Владельцы транспортных средств - виновники ДТП, риск ответственности которых не был застрахован, возмещают вред, причиненный жизни, здоровью или имуществу потерпевших, в соответствии с гражданским законодательством, с учетом того, что вред жизни и здоровью возмещается в размерах не менее чем определено в Законе об ОСАГО</t>
-  </si>
-  <si>
     <t>В случаях, когда страховое возмещение по ОСАГО при причинении вреда жизни или здоровью потерпевшего не может быть осуществлено вследствие отсутствия договора ОСАГО, по которому застрахована гражданская ответственность причинившего вред лица, профессиональным объединением страховщиков (Российским союзом автостраховщиков) осуществляется компенсационная выплата. 
 В указанных случаях владельцы транспортных средств, риск ответственности которых не был застрахован, возмещают вред, причиненный жизни, здоровью или имуществу потерпевших, в соответствии с гражданским законодательством. При этом вред, причиненный жизни или здоровью потерпевших, подлежит возмещению в размерах не менее чем размеры, определяемые в соответствии Законом об ОСАГО</t>
   </si>
@@ -409,9 +405,6 @@
     </r>
   </si>
   <si>
-    <t>Восстановительный ремонт поврежденных транспортных средств может осуществляться на станциях технического обслуживания, с которыми страховщиком заключен договор на организацию восстановительного ремонта и которые соответствует требованиям к организации восстановительного ремонта. На других станциях технического обслуживания допускается проводить восстановительный ремонт с письменного согласия потерпевшего и страховщика</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Страховое возмещение может осуществляться в денежной форме в случае превышения стоимости восстановительного ремонта поврежденного транспортного средства над размером страховой суммы </t>
     </r>
@@ -438,13 +431,42 @@
   </si>
   <si>
     <t>Обязательства, Обязаны, страховые, организации, компании, заключать, договор, ОСАГО, Обязательное страхование, гражданской ответственности, в форме, электронного документа, в электронном виде, онлайн, в Интернет</t>
+  </si>
+  <si>
+    <r>
+      <t>Восстановительный ремонт поврежденных транспортных средств может осуществляться на станциях технического обслуживания, с которыми страховщиком заключен договор на организацию восстановительного ремонта и которые соответству</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Ю</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>т требованиям к организации восстановительного ремонта. На других станциях технического обслуживания допускается проводить восстановительный ремонт с письменного согласия потерпевшего и страховщика</t>
+    </r>
+  </si>
+  <si>
+    <t>При отсутствии договора ОС\+АГО у причинившего вред лица, профессиональным объединением страховщиков осуществляется компенсационная выплата  в счет возмещения вреда, причиненного жизни или здоровью потерпевшего.
+Владельцы транспортных средств - виновники ДТП, риск ответственности которых не был застрахован, возмещают вред, причиненный жизни, здоровью или имуществу потерпевших, в соответствии с гражданским законодательством, с учетом того, что вред жизни и здоровью возмещается в размерах не менее чем определено в Законе об ОСАГО</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -890,29 +912,29 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C11" sqref="C11"/>
+      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.42578125" style="16" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="34" style="2" customWidth="1"/>
     <col min="3" max="3" width="68.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="100.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="86.5703125" style="2" customWidth="1"/>
     <col min="5" max="5" width="69.85546875" style="2" customWidth="1"/>
     <col min="6" max="6" width="54.28515625" style="2" customWidth="1"/>
     <col min="7" max="7" width="42" style="2" customWidth="1"/>
@@ -925,7 +947,7 @@
     <col min="14" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>6</v>
       </c>
@@ -963,7 +985,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="3" customFormat="1" ht="78.75">
+    <row r="2" spans="1:12" s="3" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>12</v>
       </c>
@@ -981,7 +1003,7 @@
       </c>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" spans="1:12" s="3" customFormat="1" ht="47.25">
+    <row r="3" spans="1:12" s="3" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
         <v>13</v>
       </c>
@@ -1000,7 +1022,7 @@
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" spans="1:12" s="3" customFormat="1" ht="78.75">
+    <row r="4" spans="1:12" s="3" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
         <v>14</v>
       </c>
@@ -1017,7 +1039,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="3" customFormat="1" ht="141.75">
+    <row r="5" spans="1:12" s="3" customFormat="1" ht="126" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
         <v>15</v>
       </c>
@@ -1034,7 +1056,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="3" customFormat="1" ht="204.75">
+    <row r="6" spans="1:12" s="3" customFormat="1" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
         <v>16</v>
       </c>
@@ -1042,16 +1064,16 @@
         <v>25</v>
       </c>
       <c r="C6" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6" s="13" t="s">
         <v>61</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>62</v>
       </c>
       <c r="E6" s="11" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:12" s="3" customFormat="1" ht="78.75">
+    <row r="7" spans="1:12" s="3" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
         <v>17</v>
       </c>
@@ -1068,7 +1090,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:12" s="3" customFormat="1" ht="110.25">
+    <row r="8" spans="1:12" s="3" customFormat="1" ht="138.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
         <v>18</v>
       </c>
@@ -1076,10 +1098,10 @@
         <v>27</v>
       </c>
       <c r="C8" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" s="14" t="s">
         <v>63</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>64</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>46</v>
@@ -1087,7 +1109,7 @@
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
     </row>
-    <row r="9" spans="1:12" s="3" customFormat="1" ht="78.75">
+    <row r="9" spans="1:12" s="3" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
         <v>19</v>
       </c>
@@ -1095,7 +1117,7 @@
         <v>28</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>48</v>
@@ -1106,7 +1128,7 @@
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
     </row>
-    <row r="10" spans="1:12" s="3" customFormat="1" ht="173.25">
+    <row r="10" spans="1:12" s="3" customFormat="1" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
         <v>20</v>
       </c>
@@ -1120,10 +1142,10 @@
         <v>50</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" s="3" customFormat="1" ht="267.75">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" s="3" customFormat="1" ht="255" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
         <v>33</v>
       </c>
@@ -1131,16 +1153,16 @@
         <v>30</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>51</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" s="3" customFormat="1" ht="126">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" s="3" customFormat="1" ht="156.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
         <v>34</v>
       </c>
@@ -1148,7 +1170,7 @@
         <v>31</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>53</v>
@@ -1157,7 +1179,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:12" s="3" customFormat="1" ht="63">
+    <row r="13" spans="1:12" s="3" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
         <v>35</v>
       </c>
@@ -1171,65 +1193,65 @@
         <v>55</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" s="3" customFormat="1">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="16"/>
       <c r="D14" s="10"/>
     </row>
-    <row r="15" spans="1:12" s="3" customFormat="1">
+    <row r="15" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="16"/>
     </row>
-    <row r="16" spans="1:12" s="3" customFormat="1">
+    <row r="16" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="16"/>
       <c r="D16" s="5"/>
     </row>
-    <row r="17" spans="1:4" s="3" customFormat="1">
+    <row r="17" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="16"/>
     </row>
-    <row r="18" spans="1:4" s="3" customFormat="1">
+    <row r="18" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="16"/>
     </row>
-    <row r="19" spans="1:4" s="3" customFormat="1">
+    <row r="19" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="16"/>
     </row>
-    <row r="20" spans="1:4" s="3" customFormat="1">
+    <row r="20" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="16"/>
     </row>
-    <row r="21" spans="1:4" s="3" customFormat="1">
+    <row r="21" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="16"/>
     </row>
-    <row r="22" spans="1:4" s="3" customFormat="1">
+    <row r="22" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="16"/>
       <c r="D22" s="7"/>
     </row>
-    <row r="23" spans="1:4" s="3" customFormat="1">
+    <row r="23" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="16"/>
       <c r="D23" s="5"/>
     </row>
-    <row r="24" spans="1:4" s="3" customFormat="1">
+    <row r="24" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="16"/>
     </row>
-    <row r="25" spans="1:4" s="3" customFormat="1">
+    <row r="25" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="16"/>
     </row>
-    <row r="26" spans="1:4" s="3" customFormat="1">
+    <row r="26" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="16"/>
     </row>
-    <row r="27" spans="1:4" s="3" customFormat="1">
+    <row r="27" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="16"/>
     </row>
-    <row r="28" spans="1:4" s="3" customFormat="1">
+    <row r="28" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="16"/>
     </row>
-    <row r="29" spans="1:4" s="3" customFormat="1">
+    <row r="29" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="16"/>
     </row>
-    <row r="30" spans="1:4" s="3" customFormat="1">
+    <row r="30" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="16"/>
     </row>
-    <row r="31" spans="1:4" s="3" customFormat="1">
+    <row r="31" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="16"/>
     </row>
   </sheetData>

--- a/data/minfin/25_questions.xlsx
+++ b/data/minfin/25_questions.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17726"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19410" windowHeight="8340"/>
   </bookViews>
   <sheets>
     <sheet name="questions" sheetId="1" r:id="rId1"/>
@@ -168,9 +168,6 @@
     <t>Обязательное страхование гражданской ответственности владельцев транспортных средств осуществляется в целях защиты прав потерпевших на возмещение вреда, причиненного их жизни, здоровью или имуществу при использовании транспортных средств иными лицами</t>
   </si>
   <si>
-    <t>В 2016 году гражданская ответственность по договорам ОСАГО в Российской Федерации была застрахована тридцатью девятью миллионами владельцев транспортных средств</t>
-  </si>
-  <si>
     <t>В 2016 году гражданская ответственность по договорам ОСАГО в Российской Федерации была застрахована 39 миллионами владельцев транспортных средств</t>
   </si>
   <si>
@@ -181,291 +178,295 @@
   </si>
   <si>
     <t>Страхование гражданской ответственности владельцев транспортных средств в обязательной форме осуществляется с 2003 г. в результате принятия Федерального закона от 25.04.2002 № 40-ФЗ «Об обязательном страховании гражданской ответственности владельцев транспортных средств»</t>
+  </si>
+  <si>
+    <t>страховое возмещение, ОСАГО, Обязательное страхование, гражданской ответственности, по договорам, в случае, причинения вреда, транспортному средству, потерпевшего, в результате, ДТП, дорожно-транспортное происшествие</t>
+  </si>
+  <si>
+    <t>Страховое возмещение по договорам ОСАГО, заключенным после двадцать восьмого апреля две тысячи семнадцатого года, производится преимущественно в натуральной форме путем организации и оплаты страховщиком восстановительного ремонта поврежденного транспортного средства потерпевшего</t>
+  </si>
+  <si>
+    <t>С 28 апреля 2017 г. страховое возмещение по договорам ОСАГО, заключенным после указанной даты, осуществляется преимущественно в натуральной форме путем организации и оплаты страховщиком восстановительного ремонта поврежденного транспортного средства потерпевшего</t>
+  </si>
+  <si>
+    <t>Предельные, сроки, восстановительного, ремонта, поврежденных, транспортных средств, по договорам, ОСАГО, Обязательное страхование, гражданской ответственности, осуществляемого, страховщиком</t>
+  </si>
+  <si>
+    <t>Гарантийный срок, на работы, восстановительный, ремонт, поврежденного, транспортного средства, по договорам, ОСАГО, Обязательное страхование, гражданской ответственности</t>
+  </si>
+  <si>
+    <t>При наличии согласия страховщика в письменной форме потерпевший вправе самостоятельно организовать проведение восстановительного ремонта своего поврежденного транспортного средства на станции технического обслуживания, с которой у страховщика отсутствует договор на организацию восстановительного ремонта</t>
+  </si>
+  <si>
+    <t>При наличии согласия страховщика в письменной форме потерпевший вправе самостоятельно организовать проведение восстановительного ремонта своего поврежденного транспортного средства на станции технического обслуживания, с которой у страховщика на момент подачи потерпевшим заявления о страховом возмещении или прямом возмещении убытков отсутствует договор на организацию восстановительного ремонта. В этом случае потерпевший в заявлении о страховом возмещении или прямом возмещении убытков указывает полное наименование выбранной станции технического обслуживания, ее адрес, место нахождения и платежные реквизиты, а страховщик выдает потерпевшему направление на ремонт и оплачивает проведенный восстановительный ремонт</t>
+  </si>
+  <si>
+    <t>Страховое возмещение, по договору, ОСАГО, Обязательное страхование, гражданской ответственности, причинение вреда, транспортному средству, потерпевшего, в денежной форме, кроме случаев, смерти потерпевшего, полной гибели транспортного средства</t>
+  </si>
+  <si>
+    <t>С первого января две тысячи семнадцатого года страховые организации обязаны обеспечить возможность заключения договора ОСАГО в виде электронного документа</t>
+  </si>
+  <si>
+    <t>С 1 января 2017 г. страховые организации обязаны обеспечить возможность заключения договора ОСАГО в виде электронного документа с каждым обратившимся к нему с соответствующим заявлением лицом</t>
+  </si>
+  <si>
+    <t>В чем, заключается, ОСАГО, Цель, Обязательное страхование, гражданской ответственности, транспортное средство, страхование</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Сколько, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Количество,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">  владельцев, транспортных средств, заключают, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>страхователей,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> договор, ОСАГО, Обязательное страхование, гражданской ответственности</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Куда, обратиться, получение, страховое возмещение, ст</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>раховая выплата,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> страховщик, застраховавшему, гражданскую ответственность, потерпевший</t>
+    </r>
+  </si>
+  <si>
+    <t>Потерпевший вправе обратиться к страховщику, если вред причинен только транспортным средствам; и если ДТП произошло в результате взаимодействия двух транспортных средств, гражданская ответственность владельцев которых застрахована</t>
+  </si>
+  <si>
+    <r>
+      <t>Получить, Страховая выплата, ОСАГО, Обязательное страхование, гражданской ответственности, Не застрахован, гражданская ответственность, лицо, причинившего вред, в</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>иновника ДТП</t>
+    </r>
+  </si>
+  <si>
+    <t>В случаях, когда страховое возмещение по ОСАГО при причинении вреда жизни или здоровью потерпевшего не может быть осуществлено вследствие отсутствия договора ОСАГО, по которому застрахована гражданская ответственность причинившего вред лица, профессиональным объединением страховщиков (Российским союзом автостраховщиков) осуществляется компенсационная выплата. 
+В указанных случаях владельцы транспортных средств, риск ответственности которых не был застрахован, возмещают вред, причиненный жизни, здоровью или имуществу потерпевших, в соответствии с гражданским законодательством. При этом вред, причиненный жизни или здоровью потерпевших, подлежит возмещению в размерах не менее чем размеры, определяемые в соответствии Законом об ОСАГО</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Максимальный</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> срок проведения восстановительного ремонта поврежденного транспортного средства составляет тридцать рабочих дней</t>
+    </r>
+  </si>
+  <si>
+    <t>Максимальный срок проведения восстановительного ремонта поврежденного транспортного средства составляет 30 рабочих дней</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Минимальный гарантийный срок на работы по восстановительному ремонту поврежденного транспортного средства </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>составляет</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">  шесть месяцев и двенадцать месяцев для кузовных работ и работ, связанных с использованием лакокрасочных материалов</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Восстановительный ремонт, станции технического обслуживания, выбранной потерпевшим, не включенной, в перечень, без договора, у страховой организации, заключен, договор,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> СТО</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">На каких, станция технического обслуживания, восстановительный ремонт, транспортных средств, по договорам, ОСАГО, Обязательное страхование, гражданской ответственности, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>СТО</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Страховое возмещение может осуществляться в денежной форме в случае превышения стоимости восстановительного ремонта поврежденного транспортного средства над размером страховой суммы </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>и в иных случаях</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> при наличии соглашения между страховщиком и потерпевшим</t>
+    </r>
+  </si>
+  <si>
+    <t>Обязательства, Обязаны, страховые, организации, компании, заключать, договор, ОСАГО, Обязательное страхование, гражданской ответственности, в форме, электронного документа, в электронном виде, онлайн, в Интернет</t>
+  </si>
+  <si>
+    <r>
+      <t>Восстановительный ремонт поврежденных транспортных средств может осуществляться на станциях технического обслуживания, с которыми страховщиком заключен договор на организацию восстановительного ремонта и которые соответству</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Ю</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>т требованиям к организации восстановительного ремонта. На других станциях технического обслуживания допускается проводить восстановительный ремонт с письменного согласия потерпевшего и страховщика</t>
+    </r>
+  </si>
+  <si>
+    <t>При отсутствии договора ОС\+АГО у причинившего вред лица, профессиональным объединением страховщиков осуществляется компенсационная выплата  в счет возмещения вреда, причиненного жизни или здоровью потерпевшего.
+Владельцы транспортных средств - виновники ДТП, риск ответственности которых не был застрахован, возмещают вред, причиненный жизни, здоровью или имуществу потерпевших, в соответствии с гражданским законодательством, с учетом того, что вред жизни и здоровью возмещается в размерах не менее чем определено в Законе об ОСАГО</t>
+  </si>
+  <si>
+    <t>В 2016 году гражданская ответственность по договорам ОСАГО в Российской Федерации была застрахована тридцать\+ю девятью миллионами владельцев транспортных средств</t>
   </si>
   <si>
     <t>Потерпевший вправе обратиться к страховщику, застраховавшему гражданскую ответственность потерпевшего, с требованием о возмещении вреда, причиненного его имуществу, при наличии следующих обстоятельств:
 • в результате ДТП вред причинен только транспортным средствам;
-• ДТП произошло в результате взаимодействия двух транспортных средств, гражданская ответственность владельцев которых застрахована. При этом с 25 сентября 2017 г. прямое возмещение убытков будет осуществляться независимо от количества участвующих в ДТП транспортных средств</t>
-  </si>
-  <si>
-    <t>страховое возмещение, ОСАГО, Обязательное страхование, гражданской ответственности, по договорам, в случае, причинения вреда, транспортному средству, потерпевшего, в результате, ДТП, дорожно-транспортное происшествие</t>
-  </si>
-  <si>
-    <t>Страховое возмещение по договорам ОСАГО, заключенным после двадцать восьмого апреля две тысячи семнадцатого года, производится преимущественно в натуральной форме путем организации и оплаты страховщиком восстановительного ремонта поврежденного транспортного средства потерпевшего</t>
-  </si>
-  <si>
-    <t>С 28 апреля 2017 г. страховое возмещение по договорам ОСАГО, заключенным после указанной даты, осуществляется преимущественно в натуральной форме путем организации и оплаты страховщиком восстановительного ремонта поврежденного транспортного средства потерпевшего</t>
-  </si>
-  <si>
-    <t>Предельные, сроки, восстановительного, ремонта, поврежденных, транспортных средств, по договорам, ОСАГО, Обязательное страхование, гражданской ответственности, осуществляемого, страховщиком</t>
-  </si>
-  <si>
-    <t>Гарантийный срок, на работы, восстановительный, ремонт, поврежденного, транспортного средства, по договорам, ОСАГО, Обязательное страхование, гражданской ответственности</t>
-  </si>
-  <si>
-    <t>Минимальный гарантийный срок на работы по восстановительному ремонту поврежденного транспортного средства составляет 6 месяцев, а на кузовные работы и работы, связанные с использованием лакокрасочных материалов, 12 месяцев</t>
-  </si>
-  <si>
-    <t>При наличии согласия страховщика в письменной форме потерпевший вправе самостоятельно организовать проведение восстановительного ремонта своего поврежденного транспортного средства на станции технического обслуживания, с которой у страховщика отсутствует договор на организацию восстановительного ремонта</t>
-  </si>
-  <si>
-    <t>При наличии согласия страховщика в письменной форме потерпевший вправе самостоятельно организовать проведение восстановительного ремонта своего поврежденного транспортного средства на станции технического обслуживания, с которой у страховщика на момент подачи потерпевшим заявления о страховом возмещении или прямом возмещении убытков отсутствует договор на организацию восстановительного ремонта. В этом случае потерпевший в заявлении о страховом возмещении или прямом возмещении убытков указывает полное наименование выбранной станции технического обслуживания, ее адрес, место нахождения и платежные реквизиты, а страховщик выдает потерпевшему направление на ремонт и оплачивает проведенный восстановительный ремонт</t>
+• ДТП произошло в результате взаимодействия двух транспортных средств, гражданская ответственность владельцев которых застрахована. 
+При этом с 25 сентября 2017 г. прямое возмещение убытков будет осуществляться независимо от количества участвующих в ДТП транспортных средств</t>
+  </si>
+  <si>
+    <t>Минимальный гарантийный срок на работы по восстановительному ремонту поврежденного транспортного средства составляет 6 месяцев, а на кузовные работы и работы, связанные с использованием лакокрасочных материалов, — 12 месяцев</t>
   </si>
   <si>
     <t>Восстановительный ремонт поврежденных транспортных средств может осуществляться:
 - на одной из станций технического обслуживания, с которой страховщиком заключен договор на организацию восстановительного ремонта и которая соответствует установленным правилами ОСАГО требованиям к организации восстановительного ремонта в отношении конкретного потерпевшего;
-- на одной из станций технического обслуживания, с которой страховщиком заключен соответствующий договор и которая не соответствует установленным правилами ОСАГО требованиям к организации восстановительного ремонта в отношении конкретного потерпевшего - с согласия потерпевшего в письменной форме;
- - на станции технического обслуживания, с которой у страховщика на момент подачи потерпевшим заявления о страховом возмещении или прямом возмещении убытков отсутствует договор на организацию восстановительного ремонта - при наличии согласия страховщика в письменной форме</t>
-  </si>
-  <si>
-    <t>Страховое возмещение, по договору, ОСАГО, Обязательное страхование, гражданской ответственности, причинение вреда, транспортному средству, потерпевшего, в денежной форме, кроме случаев, смерти потерпевшего, полной гибели транспортного средства</t>
-  </si>
-  <si>
-    <t>Страховое возмещение по договору ОСАГО может осуществляться в денежной форме в случае превышения стоимости восстановительного ремонта поврежденного транспортного средства над размером страховой суммы, а так же в иных случаях, в том числе при наличии соглашения между страховщиком и потерпевшим</t>
-  </si>
-  <si>
-    <t>С первого января две тысячи семнадцатого года страховые организации обязаны обеспечить возможность заключения договора ОСАГО в виде электронного документа</t>
-  </si>
-  <si>
-    <t>С 1 января 2017 г. страховые организации обязаны обеспечить возможность заключения договора ОСАГО в виде электронного документа с каждым обратившимся к нему с соответствующим заявлением лицом</t>
-  </si>
-  <si>
-    <t>В чем, заключается, ОСАГО, Цель, Обязательное страхование, гражданской ответственности, транспортное средство, страхование</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Сколько, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>Количество,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">  владельцев, транспортных средств, заключают, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>страхователей,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> договор, ОСАГО, Обязательное страхование, гражданской ответственности</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Куда, обратиться, получение, страховое возмещение, ст</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>раховая выплата,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> страховщик, застраховавшему, гражданскую ответственность, потерпевший</t>
-    </r>
-  </si>
-  <si>
-    <t>Потерпевший вправе обратиться к страховщику, если вред причинен только транспортным средствам; и если ДТП произошло в результате взаимодействия двух транспортных средств, гражданская ответственность владельцев которых застрахована</t>
-  </si>
-  <si>
-    <r>
-      <t>Получить, Страховая выплата, ОСАГО, Обязательное страхование, гражданской ответственности, Не застрахован, гражданская ответственность, лицо, причинившего вред, в</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>иновника ДТП</t>
-    </r>
-  </si>
-  <si>
-    <t>В случаях, когда страховое возмещение по ОСАГО при причинении вреда жизни или здоровью потерпевшего не может быть осуществлено вследствие отсутствия договора ОСАГО, по которому застрахована гражданская ответственность причинившего вред лица, профессиональным объединением страховщиков (Российским союзом автостраховщиков) осуществляется компенсационная выплата. 
-В указанных случаях владельцы транспортных средств, риск ответственности которых не был застрахован, возмещают вред, причиненный жизни, здоровью или имуществу потерпевших, в соответствии с гражданским законодательством. При этом вред, причиненный жизни или здоровью потерпевших, подлежит возмещению в размерах не менее чем размеры, определяемые в соответствии Законом об ОСАГО</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>Максимальный</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> срок проведения восстановительного ремонта поврежденного транспортного средства составляет тридцать рабочих дней</t>
-    </r>
-  </si>
-  <si>
-    <t>Максимальный срок проведения восстановительного ремонта поврежденного транспортного средства составляет 30 рабочих дней</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Минимальный гарантийный срок на работы по восстановительному ремонту поврежденного транспортного средства </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>составляет</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">  шесть месяцев и двенадцать месяцев для кузовных работ и работ, связанных с использованием лакокрасочных материалов</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Восстановительный ремонт, станции технического обслуживания, выбранной потерпевшим, не включенной, в перечень, без договора, у страховой организации, заключен, договор,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> СТО</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">На каких, станция технического обслуживания, восстановительный ремонт, транспортных средств, по договорам, ОСАГО, Обязательное страхование, гражданской ответственности, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>СТО</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Страховое возмещение может осуществляться в денежной форме в случае превышения стоимости восстановительного ремонта поврежденного транспортного средства над размером страховой суммы </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>и в иных случаях</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> при наличии соглашения между страховщиком и потерпевшим</t>
-    </r>
-  </si>
-  <si>
-    <t>Обязательства, Обязаны, страховые, организации, компании, заключать, договор, ОСАГО, Обязательное страхование, гражданской ответственности, в форме, электронного документа, в электронном виде, онлайн, в Интернет</t>
-  </si>
-  <si>
-    <r>
-      <t>Восстановительный ремонт поврежденных транспортных средств может осуществляться на станциях технического обслуживания, с которыми страховщиком заключен договор на организацию восстановительного ремонта и которые соответству</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>Ю</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>т требованиям к организации восстановительного ремонта. На других станциях технического обслуживания допускается проводить восстановительный ремонт с письменного согласия потерпевшего и страховщика</t>
-    </r>
-  </si>
-  <si>
-    <t>При отсутствии договора ОС\+АГО у причинившего вред лица, профессиональным объединением страховщиков осуществляется компенсационная выплата  в счет возмещения вреда, причиненного жизни или здоровью потерпевшего.
-Владельцы транспортных средств - виновники ДТП, риск ответственности которых не был застрахован, возмещают вред, причиненный жизни, здоровью или имуществу потерпевших, в соответствии с гражданским законодательством, с учетом того, что вред жизни и здоровью возмещается в размерах не менее чем определено в Законе об ОСАГО</t>
+- на одной из станций технического обслуживания, с которой страховщиком заключен соответствующий договор и которая не соответствует установленным правилами ОСАГО требованиям к организации восстановительного ремонта в отношении конкретного потерпевшего, — с согласия потерпевшего в письменной форме;
+ - на станции технического обслуживания, с которой у страховщика на момент подачи потерпевшим заявления о страховом возмещении или прямом возмещении убытков отсутствует договор на организацию восстановительного ремонта, — при наличии согласия страховщика в письменной форме</t>
+  </si>
+  <si>
+    <t>Страховое возмещение по договору ОСАГО может осуществляться в денежной форме в случае превышения стоимости восстановительного ремонта поврежденного транспортного средства над размером страховой суммы, а также в иных случаях, в том числе при наличии соглашения между страховщиком и потерпевшим</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -923,10 +924,10 @@
   <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
+      <selection pane="bottomRight" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -999,7 +1000,7 @@
         <v>36</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="F2" s="4"/>
     </row>
@@ -1011,13 +1012,13 @@
         <v>22</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>38</v>
-      </c>
       <c r="E3" s="11" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
@@ -1030,13 +1031,13 @@
         <v>23</v>
       </c>
       <c r="C4" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>41</v>
-      </c>
       <c r="E4" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="3" customFormat="1" ht="126" x14ac:dyDescent="0.25">
@@ -1047,13 +1048,13 @@
         <v>24</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="3" customFormat="1" ht="157.5" x14ac:dyDescent="0.25">
@@ -1064,13 +1065,13 @@
         <v>25</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:12" s="3" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
@@ -1081,13 +1082,13 @@
         <v>26</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:12" s="3" customFormat="1" ht="138.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1098,13 +1099,13 @@
         <v>27</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
@@ -1117,13 +1118,13 @@
         <v>28</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
@@ -1136,13 +1137,13 @@
         <v>29</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:12" s="3" customFormat="1" ht="255" customHeight="1" x14ac:dyDescent="0.25">
@@ -1153,13 +1154,13 @@
         <v>30</v>
       </c>
       <c r="C11" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>51</v>
-      </c>
       <c r="E11" s="14" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:12" s="3" customFormat="1" ht="156.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1170,13 +1171,13 @@
         <v>31</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:12" s="3" customFormat="1" ht="63" x14ac:dyDescent="0.25">
@@ -1187,13 +1188,13 @@
         <v>32</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
